--- a/gfx/Evaluation.xlsx
+++ b/gfx/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joli\Desktop\Masterthesis\ausarbeitung\gfx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714DE4E8-EF17-4226-8C61-FB7C4EB3F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF894E00-DF4F-430B-8FC1-548CBEE8829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1700,9 +1700,6 @@
     <t>Zeppelin</t>
   </si>
   <si>
-    <t>Bitte markiere die Kompetenzen mit einem "x", die du gerne im Projekt anwenden würdest.</t>
-  </si>
-  <si>
     <t>Es darf sich dabei gerne um Kompetenzen handeln, die du bisher wenig oder gar nicht beherrscht, du aber gerne erlernen würdest.</t>
   </si>
   <si>
@@ -1725,6 +1722,9 @@
   </si>
   <si>
     <t>Würde mich stören</t>
+  </si>
+  <si>
+    <t>Bitte markiere die Kompetenzen mit einem "x", die du gerne in einem Projekt anwenden würdest.</t>
   </si>
 </sst>
 </file>
@@ -2105,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5E837-8868-4807-8DD8-53453B95E2BE}">
   <dimension ref="A1:B560"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2117,25 +2117,25 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" t="s">
         <v>556</v>
-      </c>
-      <c r="B6" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4939,32 +4939,32 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B3" s="2"/>
       <c r="E3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="E4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle eine der vorgegebenen Antwortmöglichkeiten aus" sqref="B3" xr:uid="{B20B899D-B874-4BEB-99BC-EEF8178A2F30}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle eine der vorgegebenen Antwortmöglichkeiten aus dem DropDown-Menü aus" sqref="B3" xr:uid="{B20B899D-B874-4BEB-99BC-EEF8178A2F30}">
       <formula1>$E$3:$E$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4976,7 +4976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA837BA0-E57D-46B8-B25E-9703A9ACE64E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/gfx/Evaluation.xlsx
+++ b/gfx/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joli\Desktop\Masterthesis\ausarbeitung\gfx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF894E00-DF4F-430B-8FC1-548CBEE8829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ADBA45-4640-45C3-9B21-8378932FEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="577">
   <si>
     <t>.NET</t>
   </si>
@@ -1700,9 +1700,6 @@
     <t>Zeppelin</t>
   </si>
   <si>
-    <t>Es darf sich dabei gerne um Kompetenzen handeln, die du bisher wenig oder gar nicht beherrscht, du aber gerne erlernen würdest.</t>
-  </si>
-  <si>
     <t>Kompetenz</t>
   </si>
   <si>
@@ -1725,13 +1722,58 @@
   </si>
   <si>
     <t>Bitte markiere die Kompetenzen mit einem "x", die du gerne in einem Projekt anwenden würdest.</t>
+  </si>
+  <si>
+    <t>Es darf sich dabei sowohl um Kompetenzen handeln, die du bereits beherrscht bzw. angewendet hast, als auch um Fähigkeiten, die erst noch lernen bzw. erstmals anwenden möchtest</t>
+  </si>
+  <si>
+    <t>Projekt A</t>
+  </si>
+  <si>
+    <t>Anforderungsniveau</t>
+  </si>
+  <si>
+    <t>Experte</t>
+  </si>
+  <si>
+    <t>Grundkenntnisse</t>
+  </si>
+  <si>
+    <t>Zufriedenheit mit diesem Projekt:</t>
+  </si>
+  <si>
+    <t>Projekt B</t>
+  </si>
+  <si>
+    <t>Projekt C</t>
+  </si>
+  <si>
+    <t>Projekt D</t>
+  </si>
+  <si>
+    <t>Projekt E</t>
+  </si>
+  <si>
+    <t>Weniger zufrieden</t>
+  </si>
+  <si>
+    <t>Voll und ganz zufrieden</t>
+  </si>
+  <si>
+    <t>Überwiegend zufrieden</t>
+  </si>
+  <si>
+    <t>Gar nicht zufrieden</t>
+  </si>
+  <si>
+    <t>Wie zufrieden wärst du, wenn du in die folgenden Projekten A bis E zugeteilt würdest?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,6 +1790,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1774,10 +1832,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1801,6 +1861,61 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6CFDC8E4-9A7E-4252-837F-7A1828C592A5}" name="Kompetenz"/>
     <tableColumn id="2" xr3:uid="{BB0619C6-F3D9-4DB2-AB51-8D2DF3BD2AE1}" name="Möchte ich anwenden"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1207295-717A-4D5E-B95E-C4359D08C8A8}" name="Tabelle1" displayName="Tabelle1" ref="A6:B19" totalsRowShown="0">
+  <autoFilter ref="A6:B19" xr:uid="{B1207295-717A-4D5E-B95E-C4359D08C8A8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DB501345-E69A-4945-B67E-307C44910BFE}" name="Kompetenz"/>
+    <tableColumn id="2" xr3:uid="{4EBAC800-237C-4A19-A072-CA27B5072006}" name="Anforderungsniveau"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4D19AE8-4636-4BCF-AC7A-B94AFC75CE9D}" name="Tabelle14" displayName="Tabelle14" ref="D6:E19" totalsRowShown="0">
+  <autoFilter ref="D6:E19" xr:uid="{E4D19AE8-4636-4BCF-AC7A-B94AFC75CE9D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4D6D8432-7994-44E7-A322-8DE05A8AE7C1}" name="Kompetenz"/>
+    <tableColumn id="2" xr3:uid="{7A377A6F-7208-45CB-9E81-2A56FC71CD5E}" name="Anforderungsniveau"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1F7FFFCD-05CF-42D1-B701-626E0F917BB9}" name="Tabelle145" displayName="Tabelle145" ref="G6:H19" totalsRowShown="0">
+  <autoFilter ref="G6:H19" xr:uid="{1F7FFFCD-05CF-42D1-B701-626E0F917BB9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{72283C5D-7CAA-4777-B0E6-1A79843E21D8}" name="Kompetenz"/>
+    <tableColumn id="2" xr3:uid="{EC7AA6AA-2335-4EF3-9AD4-44549DA02353}" name="Anforderungsniveau"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70946731-3BD3-4B85-A09F-227022077B79}" name="Tabelle1456" displayName="Tabelle1456" ref="J6:K19" totalsRowShown="0">
+  <autoFilter ref="J6:K19" xr:uid="{70946731-3BD3-4B85-A09F-227022077B79}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3AE0641E-AAD2-47BE-A200-A94314B1EDA6}" name="Kompetenz"/>
+    <tableColumn id="2" xr3:uid="{831EA4DC-524D-4016-A1FC-B81F1DB0497F}" name="Anforderungsniveau"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5CE5557E-FF77-4DCD-B901-00A942B42E17}" name="Tabelle14567" displayName="Tabelle14567" ref="M6:N19" totalsRowShown="0">
+  <autoFilter ref="M6:N19" xr:uid="{5CE5557E-FF77-4DCD-B901-00A942B42E17}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C8F0BFCE-EA2A-4E5E-AE98-FFDCFE4A5A72}" name="Kompetenz"/>
+    <tableColumn id="2" xr3:uid="{59A54C99-F86D-4620-940A-D8229BB52590}" name="Anforderungsniveau"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2105,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5E837-8868-4807-8DD8-53453B95E2BE}">
   <dimension ref="A1:B560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2117,25 +2232,25 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" t="s">
         <v>555</v>
-      </c>
-      <c r="B6" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4925,7 +5040,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1B127-E7BD-4F04-B8F9-12FEE9B75AED}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -4937,35 +5052,39 @@
     <col min="2" max="2" width="70.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>558</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="E3" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="E4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
-        <v>561</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle eine der vorgegebenen Antwortmöglichkeiten aus dem DropDown-Menü aus" sqref="B3" xr:uid="{B20B899D-B874-4BEB-99BC-EEF8178A2F30}">
-      <formula1>$E$3:$E$5</formula1>
+      <formula1>$A$100:$A$102</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4974,14 +5093,387 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA837BA0-E57D-46B8-B25E-9703A9ACE64E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="52.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E6" t="s">
+        <v>564</v>
+      </c>
+      <c r="G6" t="s">
+        <v>554</v>
+      </c>
+      <c r="H6" t="s">
+        <v>564</v>
+      </c>
+      <c r="J6" t="s">
+        <v>554</v>
+      </c>
+      <c r="K6" t="s">
+        <v>564</v>
+      </c>
+      <c r="M6" t="s">
+        <v>554</v>
+      </c>
+      <c r="N6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H7" t="s">
+        <v>566</v>
+      </c>
+      <c r="J7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K7" t="s">
+        <v>565</v>
+      </c>
+      <c r="M7" t="s">
+        <v>298</v>
+      </c>
+      <c r="N7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" t="s">
+        <v>565</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>566</v>
+      </c>
+      <c r="J8" t="s">
+        <v>478</v>
+      </c>
+      <c r="K8" t="s">
+        <v>566</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>565</v>
+      </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>565</v>
+      </c>
+      <c r="J9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" t="s">
+        <v>566</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>566</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>565</v>
+      </c>
+      <c r="J10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" t="s">
+        <v>566</v>
+      </c>
+      <c r="M10" t="s">
+        <v>328</v>
+      </c>
+      <c r="N10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>566</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>565</v>
+      </c>
+      <c r="M11" t="s">
+        <v>412</v>
+      </c>
+      <c r="N11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" t="s">
+        <v>566</v>
+      </c>
+      <c r="D12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" t="s">
+        <v>478</v>
+      </c>
+      <c r="H12" t="s">
+        <v>565</v>
+      </c>
+      <c r="M12" t="s">
+        <v>289</v>
+      </c>
+      <c r="N12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" t="s">
+        <v>488</v>
+      </c>
+      <c r="E13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle einen der vorgegebenen Werte aus!" sqref="B19 E19 H19 K19 N19" xr:uid="{ECC4239F-95B5-40C9-8646-00E87F8DC5F4}">
+      <formula1>$A$100:$A$103</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/gfx/Evaluation.xlsx
+++ b/gfx/Evaluation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joli\Desktop\Masterthesis\ausarbeitung\gfx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ADBA45-4640-45C3-9B21-8378932FEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782D9EE-19BD-4E4E-A9C2-347371D767EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
+    <workbookView xWindow="28680" yWindow="-12690" windowWidth="29040" windowHeight="15990" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
-    <sheet name="Unterforderung" sheetId="2" r:id="rId2"/>
-    <sheet name="Projektbewertung" sheetId="3" r:id="rId3"/>
+    <sheet name="Projektbewertung" sheetId="3" r:id="rId2"/>
+    <sheet name="Unterforderung" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5E837-8868-4807-8DD8-53453B95E2BE}">
   <dimension ref="A1:B560"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5039,63 +5039,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1B127-E7BD-4F04-B8F9-12FEE9B75AED}">
-  <dimension ref="A1:B102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="68.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>560</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle eine der vorgegebenen Antwortmöglichkeiten aus dem DropDown-Menü aus" sqref="B3" xr:uid="{B20B899D-B874-4BEB-99BC-EEF8178A2F30}">
-      <formula1>$A$100:$A$102</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA837BA0-E57D-46B8-B25E-9703A9ACE64E}">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5476,4 +5423,57 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1B127-E7BD-4F04-B8F9-12FEE9B75AED}">
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="68.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle eine der vorgegebenen Antwortmöglichkeiten aus dem DropDown-Menü aus" sqref="B3" xr:uid="{B20B899D-B874-4BEB-99BC-EEF8178A2F30}">
+      <formula1>$A$100:$A$102</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gfx/Evaluation.xlsx
+++ b/gfx/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joli\Desktop\Masterthesis\ausarbeitung\gfx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782D9EE-19BD-4E4E-A9C2-347371D767EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4008DE02-D189-4844-B1E2-BEFC4046311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12690" windowWidth="29040" windowHeight="15990" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="581">
   <si>
     <t>.NET</t>
   </si>
@@ -1767,6 +1767,18 @@
   </si>
   <si>
     <t>Wie zufrieden wärst du, wenn du in die folgenden Projekten A bis E zugeteilt würdest?</t>
+  </si>
+  <si>
+    <t>Grundkennisse entspricht den Fähigikeitsniveaus "Ich habe Grundkenntnisse", "Ich habe es schon in einem Projekt eingesetzt" und "Ich habe es in einem Projekt eingeführt" im Intranet</t>
+  </si>
+  <si>
+    <t>Experte entspricht den Fähigkeitsniveaus "Ich habe Kollegen geholfen es einzusetzen", "Ich habe eine Schulung zu dem Thema gehalten" und "Ich habe auf Konferenzen zu dem Thema Vorträge gehalten" im Intranet</t>
+  </si>
+  <si>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>Antwort</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1854,80 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1867,8 +1952,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1207295-717A-4D5E-B95E-C4359D08C8A8}" name="Tabelle1" displayName="Tabelle1" ref="A6:B19" totalsRowShown="0">
-  <autoFilter ref="A6:B19" xr:uid="{B1207295-717A-4D5E-B95E-C4359D08C8A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1207295-717A-4D5E-B95E-C4359D08C8A8}" name="Tabelle1" displayName="Tabelle1" ref="A9:B22" totalsRowShown="0">
+  <autoFilter ref="A9:B22" xr:uid="{B1207295-717A-4D5E-B95E-C4359D08C8A8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DB501345-E69A-4945-B67E-307C44910BFE}" name="Kompetenz"/>
     <tableColumn id="2" xr3:uid="{4EBAC800-237C-4A19-A072-CA27B5072006}" name="Anforderungsniveau"/>
@@ -1878,8 +1963,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4D19AE8-4636-4BCF-AC7A-B94AFC75CE9D}" name="Tabelle14" displayName="Tabelle14" ref="D6:E19" totalsRowShown="0">
-  <autoFilter ref="D6:E19" xr:uid="{E4D19AE8-4636-4BCF-AC7A-B94AFC75CE9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4D19AE8-4636-4BCF-AC7A-B94AFC75CE9D}" name="Tabelle14" displayName="Tabelle14" ref="D9:E22" totalsRowShown="0">
+  <autoFilter ref="D9:E22" xr:uid="{E4D19AE8-4636-4BCF-AC7A-B94AFC75CE9D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4D6D8432-7994-44E7-A322-8DE05A8AE7C1}" name="Kompetenz"/>
     <tableColumn id="2" xr3:uid="{7A377A6F-7208-45CB-9E81-2A56FC71CD5E}" name="Anforderungsniveau"/>
@@ -1889,8 +1974,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1F7FFFCD-05CF-42D1-B701-626E0F917BB9}" name="Tabelle145" displayName="Tabelle145" ref="G6:H19" totalsRowShown="0">
-  <autoFilter ref="G6:H19" xr:uid="{1F7FFFCD-05CF-42D1-B701-626E0F917BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1F7FFFCD-05CF-42D1-B701-626E0F917BB9}" name="Tabelle145" displayName="Tabelle145" ref="G9:H22" totalsRowShown="0">
+  <autoFilter ref="G9:H22" xr:uid="{1F7FFFCD-05CF-42D1-B701-626E0F917BB9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{72283C5D-7CAA-4777-B0E6-1A79843E21D8}" name="Kompetenz"/>
     <tableColumn id="2" xr3:uid="{EC7AA6AA-2335-4EF3-9AD4-44549DA02353}" name="Anforderungsniveau"/>
@@ -1900,8 +1985,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70946731-3BD3-4B85-A09F-227022077B79}" name="Tabelle1456" displayName="Tabelle1456" ref="J6:K19" totalsRowShown="0">
-  <autoFilter ref="J6:K19" xr:uid="{70946731-3BD3-4B85-A09F-227022077B79}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70946731-3BD3-4B85-A09F-227022077B79}" name="Tabelle1456" displayName="Tabelle1456" ref="A26:B32" totalsRowShown="0">
+  <autoFilter ref="A26:B32" xr:uid="{70946731-3BD3-4B85-A09F-227022077B79}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3AE0641E-AAD2-47BE-A200-A94314B1EDA6}" name="Kompetenz"/>
     <tableColumn id="2" xr3:uid="{831EA4DC-524D-4016-A1FC-B81F1DB0497F}" name="Anforderungsniveau"/>
@@ -1911,11 +1996,22 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5CE5557E-FF77-4DCD-B901-00A942B42E17}" name="Tabelle14567" displayName="Tabelle14567" ref="M6:N19" totalsRowShown="0">
-  <autoFilter ref="M6:N19" xr:uid="{5CE5557E-FF77-4DCD-B901-00A942B42E17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5CE5557E-FF77-4DCD-B901-00A942B42E17}" name="Tabelle14567" displayName="Tabelle14567" ref="D26:E33" totalsRowShown="0">
+  <autoFilter ref="D26:E33" xr:uid="{5CE5557E-FF77-4DCD-B901-00A942B42E17}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C8F0BFCE-EA2A-4E5E-AE98-FFDCFE4A5A72}" name="Kompetenz"/>
     <tableColumn id="2" xr3:uid="{59A54C99-F86D-4620-940A-D8229BB52590}" name="Anforderungsniveau"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B76E8EA1-EDB6-4CFA-BF81-CFA6D89072D3}" name="Tabelle7" displayName="Tabelle7" ref="A3:B4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A3:B4" xr:uid="{B76E8EA1-EDB6-4CFA-BF81-CFA6D89072D3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{12CDBFCD-BACC-4443-86CB-79850CD3301E}" name="Frage" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A5F8441B-22E4-421B-B953-8A2F707687C1}" name="Antwort" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2218,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5E837-8868-4807-8DD8-53453B95E2BE}">
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5021,6 +5117,11 @@
     <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>553</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A562" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5040,11 +5141,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA837BA0-E57D-46B8-B25E-9703A9ACE64E}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5060,332 +5159,360 @@
     <col min="14" max="14" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>554</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>564</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>554</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E9" t="s">
         <v>564</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G9" t="s">
         <v>554</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H9" t="s">
         <v>564</v>
       </c>
-      <c r="J6" t="s">
-        <v>554</v>
-      </c>
-      <c r="K6" t="s">
-        <v>564</v>
-      </c>
-      <c r="M6" t="s">
-        <v>554</v>
-      </c>
-      <c r="N6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>274</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>565</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>274</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
         <v>565</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G10" t="s">
         <v>523</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H10" t="s">
         <v>566</v>
       </c>
-      <c r="J7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" t="s">
         <v>565</v>
       </c>
-      <c r="M7" t="s">
-        <v>298</v>
-      </c>
-      <c r="N7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D11" t="s">
         <v>478</v>
-      </c>
-      <c r="B8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" t="s">
-        <v>565</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>566</v>
-      </c>
-      <c r="J8" t="s">
-        <v>478</v>
-      </c>
-      <c r="K8" t="s">
-        <v>566</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>565</v>
-      </c>
-      <c r="G9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" t="s">
-        <v>565</v>
-      </c>
-      <c r="J9" t="s">
-        <v>239</v>
-      </c>
-      <c r="K9" t="s">
-        <v>566</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" t="s">
-        <v>566</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>565</v>
-      </c>
-      <c r="J10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K10" t="s">
-        <v>566</v>
-      </c>
-      <c r="M10" t="s">
-        <v>328</v>
-      </c>
-      <c r="N10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B11" t="s">
-        <v>566</v>
-      </c>
-      <c r="D11" t="s">
-        <v>286</v>
       </c>
       <c r="E11" t="s">
         <v>565</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>566</v>
       </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>565</v>
-      </c>
-      <c r="M11" t="s">
-        <v>412</v>
-      </c>
-      <c r="N11" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>566</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
         <v>565</v>
       </c>
       <c r="G12" t="s">
-        <v>478</v>
+        <v>205</v>
       </c>
       <c r="H12" t="s">
         <v>565</v>
       </c>
-      <c r="M12" t="s">
-        <v>289</v>
-      </c>
-      <c r="N12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
         <v>566</v>
       </c>
       <c r="D13" t="s">
-        <v>488</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
+        <v>566</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
         <v>566</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" t="s">
+        <v>565</v>
+      </c>
+      <c r="G15" t="s">
+        <v>478</v>
+      </c>
+      <c r="H15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>499</v>
       </c>
       <c r="B17" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="B22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="E22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>554</v>
+      </c>
+      <c r="B26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D26" t="s">
+        <v>554</v>
+      </c>
+      <c r="E26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" t="s">
+        <v>565</v>
+      </c>
+      <c r="D27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" t="s">
+        <v>566</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" t="s">
+        <v>566</v>
+      </c>
+      <c r="D30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E30" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>565</v>
+      </c>
+      <c r="D31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E31" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="M19" s="3" t="s">
+      <c r="B32" s="3"/>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
@@ -5409,7 +5536,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle einen der vorgegebenen Werte aus!" sqref="B19 E19 H19 K19 N19" xr:uid="{ECC4239F-95B5-40C9-8646-00E87F8DC5F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle einen der vorgegebenen Werte aus!" sqref="B22 E22 H22 B32 E33" xr:uid="{ECC4239F-95B5-40C9-8646-00E87F8DC5F4}">
       <formula1>$A$100:$A$103</formula1>
     </dataValidation>
   </dataValidations>
@@ -5430,7 +5557,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5446,12 +5573,17 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
@@ -5470,10 +5602,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle eine der vorgegebenen Antwortmöglichkeiten aus dem DropDown-Menü aus" sqref="B3" xr:uid="{B20B899D-B874-4BEB-99BC-EEF8178A2F30}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wähle eine der vorgegebenen Antwortmöglichkeiten aus dem DropDown-Menü aus" sqref="B4" xr:uid="{B20B899D-B874-4BEB-99BC-EEF8178A2F30}">
       <formula1>$A$100:$A$102</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/gfx/Evaluation.xlsx
+++ b/gfx/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joli\Desktop\Masterthesis\ausarbeitung\gfx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4008DE02-D189-4844-B1E2-BEFC4046311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE2D5F2-7CE1-4B87-B84E-1BDD9E0FCDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12690" windowWidth="29040" windowHeight="15990" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
   </bookViews>
@@ -1733,9 +1733,6 @@
     <t>Anforderungsniveau</t>
   </si>
   <si>
-    <t>Experte</t>
-  </si>
-  <si>
     <t>Grundkenntnisse</t>
   </si>
   <si>
@@ -1772,13 +1769,16 @@
     <t>Grundkennisse entspricht den Fähigikeitsniveaus "Ich habe Grundkenntnisse", "Ich habe es schon in einem Projekt eingesetzt" und "Ich habe es in einem Projekt eingeführt" im Intranet</t>
   </si>
   <si>
-    <t>Experte entspricht den Fähigkeitsniveaus "Ich habe Kollegen geholfen es einzusetzen", "Ich habe eine Schulung zu dem Thema gehalten" und "Ich habe auf Konferenzen zu dem Thema Vorträge gehalten" im Intranet</t>
-  </si>
-  <si>
     <t>Frage</t>
   </si>
   <si>
     <t>Antwort</t>
+  </si>
+  <si>
+    <t>Fortgeschritten entspricht den Fähigkeitsniveaus "Ich habe Kollegen geholfen es einzusetzen", "Ich habe eine Schulung zu dem Thema gehalten" und "Ich habe auf Konferenzen zu dem Thema Vorträge gehalten" im Intranet</t>
+  </si>
+  <si>
+    <t>Fortgeschritten</t>
   </si>
 </sst>
 </file>
@@ -2007,11 +2007,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B76E8EA1-EDB6-4CFA-BF81-CFA6D89072D3}" name="Tabelle7" displayName="Tabelle7" ref="A3:B4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B76E8EA1-EDB6-4CFA-BF81-CFA6D89072D3}" name="Tabelle7" displayName="Tabelle7" ref="A3:B4" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A3:B4" xr:uid="{B76E8EA1-EDB6-4CFA-BF81-CFA6D89072D3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{12CDBFCD-BACC-4443-86CB-79850CD3301E}" name="Frage" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A5F8441B-22E4-421B-B953-8A2F707687C1}" name="Antwort" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{12CDBFCD-BACC-4443-86CB-79850CD3301E}" name="Frage" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A5F8441B-22E4-421B-B953-8A2F707687C1}" name="Antwort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5143,7 +5143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA837BA0-E57D-46B8-B25E-9703A9ACE64E}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5166,17 +5168,17 @@
     </row>
     <row r="3" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
@@ -5184,10 +5186,10 @@
         <v>563</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -5215,19 +5217,19 @@
         <v>274</v>
       </c>
       <c r="B10" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D10" t="s">
         <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="G10" t="s">
         <v>523</v>
       </c>
       <c r="H10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -5235,19 +5237,19 @@
         <v>478</v>
       </c>
       <c r="B11" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D11" t="s">
         <v>478</v>
       </c>
       <c r="E11" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -5255,19 +5257,19 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D12" t="s">
         <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="G12" t="s">
         <v>205</v>
       </c>
       <c r="H12" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -5275,19 +5277,19 @@
         <v>412</v>
       </c>
       <c r="B13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D13" t="s">
         <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G13" t="s">
         <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -5295,19 +5297,19 @@
         <v>472</v>
       </c>
       <c r="B14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D14" t="s">
         <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -5315,19 +5317,19 @@
         <v>334</v>
       </c>
       <c r="B15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D15" t="s">
         <v>299</v>
       </c>
       <c r="E15" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="G15" t="s">
         <v>478</v>
       </c>
       <c r="H15" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -5335,13 +5337,13 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D16" t="s">
         <v>488</v>
       </c>
       <c r="E16" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -5349,13 +5351,13 @@
         <v>499</v>
       </c>
       <c r="B17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D17" t="s">
         <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -5363,7 +5365,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -5371,7 +5373,7 @@
         <v>299</v>
       </c>
       <c r="B19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -5379,7 +5381,7 @@
         <v>246</v>
       </c>
       <c r="B20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -5387,29 +5389,29 @@
         <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -5431,13 +5433,13 @@
         <v>298</v>
       </c>
       <c r="B27" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D27" t="s">
         <v>298</v>
       </c>
       <c r="E27" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -5445,13 +5447,13 @@
         <v>478</v>
       </c>
       <c r="B28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -5459,13 +5461,13 @@
         <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -5473,13 +5475,13 @@
         <v>274</v>
       </c>
       <c r="B30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D30" t="s">
         <v>328</v>
       </c>
       <c r="E30" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -5487,51 +5489,51 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D31" t="s">
         <v>412</v>
       </c>
       <c r="E31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B32" s="3"/>
       <c r="D32" t="s">
         <v>289</v>
       </c>
       <c r="E32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5573,10 +5575,10 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/gfx/Evaluation.xlsx
+++ b/gfx/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joli\Desktop\Masterthesis\ausarbeitung\gfx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE2D5F2-7CE1-4B87-B84E-1BDD9E0FCDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8923E-1A47-4D52-B798-21F2ACD90815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12690" windowWidth="29040" windowHeight="15990" xr2:uid="{0ACB5D7D-A39F-4293-9188-51D4DBBFE078}"/>
   </bookViews>
@@ -1757,9 +1757,6 @@
     <t>Voll und ganz zufrieden</t>
   </si>
   <si>
-    <t>Überwiegend zufrieden</t>
-  </si>
-  <si>
     <t>Gar nicht zufrieden</t>
   </si>
   <si>
@@ -1779,6 +1776,9 @@
   </si>
   <si>
     <t>Fortgeschritten</t>
+  </si>
+  <si>
+    <t>Eher zufrieden</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5144,7 +5144,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5168,17 +5168,17 @@
     </row>
     <row r="3" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
@@ -5217,13 +5217,13 @@
         <v>274</v>
       </c>
       <c r="B10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D10" t="s">
         <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G10" t="s">
         <v>523</v>
@@ -5237,13 +5237,13 @@
         <v>478</v>
       </c>
       <c r="B11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D11" t="s">
         <v>478</v>
       </c>
       <c r="E11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -5263,13 +5263,13 @@
         <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G12" t="s">
         <v>205</v>
       </c>
       <c r="H12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -5289,7 +5289,7 @@
         <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -5303,7 +5303,7 @@
         <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -5323,13 +5323,13 @@
         <v>299</v>
       </c>
       <c r="E15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G15" t="s">
         <v>478</v>
       </c>
       <c r="H15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -5343,7 +5343,7 @@
         <v>488</v>
       </c>
       <c r="E16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -5357,7 +5357,7 @@
         <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -5433,13 +5433,13 @@
         <v>298</v>
       </c>
       <c r="B27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D27" t="s">
         <v>298</v>
       </c>
       <c r="E27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -5453,7 +5453,7 @@
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -5467,7 +5467,7 @@
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -5481,7 +5481,7 @@
         <v>328</v>
       </c>
       <c r="E30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -5489,7 +5489,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D31" t="s">
         <v>412</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5559,7 +5559,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
